--- a/fifteen.board.xlsx
+++ b/fifteen.board.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +117,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,16 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -418,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>6</v>
       </c>
@@ -437,8 +449,32 @@
       <c r="G3" s="2">
         <v>11</v>
       </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>12</v>
       </c>
@@ -457,8 +493,32 @@
       <c r="G4" s="2">
         <v>17</v>
       </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>18</v>
       </c>
@@ -477,8 +537,32 @@
       <c r="G5" s="2">
         <v>23</v>
       </c>
+      <c r="I5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3">
+        <v>9</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>24</v>
       </c>
@@ -497,8 +581,32 @@
       <c r="G6" s="2">
         <v>29</v>
       </c>
+      <c r="I6" s="4">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4">
+        <v>15</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>12</v>
+      </c>
+      <c r="O6" s="3">
+        <v>13</v>
+      </c>
+      <c r="P6" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>30</v>
       </c>
@@ -518,7 +626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
